--- a/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New4VIN_UT_SS.xlsx
+++ b/aaa-automation-tests/src/test/resources/uploadingfiles/vinUploadFiles/New4VIN_UT_SS.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Desktop\SUITE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gp8john\Documents\CSAA\pas-cvqaautomation\aaa-automation-tests\src\test\resources\uploadingfiles\vinUploadFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8325"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8328"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -212,7 +212,7 @@
     <t>SYMBOL_2000</t>
   </si>
   <si>
-    <t>KLTKL3TK&amp;0</t>
+    <t>DDDKN3DD&amp;E</t>
   </si>
 </sst>
 </file>
@@ -559,34 +559,34 @@
   <dimension ref="A1:AL5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B10" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.5703125" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.5546875" customWidth="1"/>
+    <col min="2" max="2" width="27.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.6640625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="24.5703125" customWidth="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1"/>
-    <col min="21" max="21" width="22.85546875" customWidth="1"/>
-    <col min="23" max="23" width="22.28515625" customWidth="1"/>
-    <col min="24" max="24" width="20.85546875" customWidth="1"/>
-    <col min="25" max="25" width="34.7109375" customWidth="1"/>
-    <col min="26" max="26" width="5.85546875" customWidth="1"/>
-    <col min="27" max="27" width="16.28515625" customWidth="1"/>
-    <col min="28" max="29" width="13.7109375" customWidth="1"/>
-    <col min="35" max="35" width="19.85546875" customWidth="1"/>
-    <col min="36" max="36" width="21.85546875" customWidth="1"/>
-    <col min="38" max="38" width="20.85546875" customWidth="1"/>
+    <col min="12" max="12" width="24.5546875" customWidth="1"/>
+    <col min="15" max="15" width="18.6640625" customWidth="1"/>
+    <col min="21" max="21" width="22.88671875" customWidth="1"/>
+    <col min="23" max="23" width="22.33203125" customWidth="1"/>
+    <col min="24" max="24" width="20.88671875" customWidth="1"/>
+    <col min="25" max="25" width="34.6640625" customWidth="1"/>
+    <col min="26" max="26" width="5.88671875" customWidth="1"/>
+    <col min="27" max="27" width="16.33203125" customWidth="1"/>
+    <col min="28" max="29" width="13.6640625" customWidth="1"/>
+    <col min="35" max="35" width="19.88671875" customWidth="1"/>
+    <col min="36" max="36" width="21.88671875" customWidth="1"/>
+    <col min="38" max="38" width="20.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -702,7 +702,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>62</v>
       </c>
@@ -818,7 +818,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>62</v>
       </c>
@@ -934,7 +934,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>62</v>
       </c>
@@ -1050,7 +1050,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>62</v>
       </c>
